--- a/SIL-CM4/SIL-CM4/SIL-BOM.xlsx
+++ b/SIL-CM4/SIL-CM4/SIL-BOM.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10808"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bello\Documents\GitHub\KICAD-PCBs\SIL-CM4\SIL-CM4\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ray/GitHub/KICAD-PCBs/SIL-CM4/SIL-CM4/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A5381E5D-1135-4567-88D8-F9ED52B95E4D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07CA7B21-B482-0F4E-851B-E6FDB1AF22E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8810" yWindow="10" windowWidth="8930" windowHeight="8940"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SIL-BOM" sheetId="1" r:id="rId1"/>
@@ -586,7 +586,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1082,11 +1082,12 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1441,26 +1442,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D58"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D48" sqref="D48"/>
+    <sheetView tabSelected="1" topLeftCell="A39" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="15.6328125" customWidth="1"/>
-    <col min="2" max="2" width="12.453125" customWidth="1"/>
-    <col min="3" max="3" width="66.26953125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="30.6328125" customWidth="1"/>
+    <col min="1" max="1" width="19.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="58.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="30.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
       <c r="C1" t="s">
@@ -1470,11 +1471,11 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>4</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="4" t="s">
         <v>5</v>
       </c>
       <c r="C2" t="s">
@@ -1484,11 +1485,11 @@
         <v>156</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>186</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C3" t="s">
@@ -1498,11 +1499,11 @@
         <v>185</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>8</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="4" t="s">
         <v>9</v>
       </c>
       <c r="C4" t="s">
@@ -1512,11 +1513,11 @@
         <v>157</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>10</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="4" t="s">
         <v>11</v>
       </c>
       <c r="C5" t="s">
@@ -1526,11 +1527,11 @@
         <v>158</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>12</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="4" t="s">
         <v>13</v>
       </c>
       <c r="C6" t="s">
@@ -1540,11 +1541,11 @@
         <v>156</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>14</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="4" t="s">
         <v>15</v>
       </c>
       <c r="C7" t="s">
@@ -1554,11 +1555,11 @@
         <v>159</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>12</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="4" t="s">
         <v>17</v>
       </c>
       <c r="C8" t="s">
@@ -1568,11 +1569,11 @@
         <v>156</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>18</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="4" t="s">
         <v>19</v>
       </c>
       <c r="C9" t="s">
@@ -1582,11 +1583,11 @@
         <v>160</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>20</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="4" t="s">
         <v>21</v>
       </c>
       <c r="C10" t="s">
@@ -1596,11 +1597,11 @@
         <v>184</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>22</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="4" t="s">
         <v>23</v>
       </c>
       <c r="C11" t="s">
@@ -1610,11 +1611,11 @@
         <v>158</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>24</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="4" t="s">
         <v>25</v>
       </c>
       <c r="C12" t="s">
@@ -1624,11 +1625,11 @@
         <v>183</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>26</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="4" t="s">
         <v>27</v>
       </c>
       <c r="C13" t="s">
@@ -1638,11 +1639,11 @@
         <v>182</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>28</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="4" t="s">
         <v>29</v>
       </c>
       <c r="C14" t="s">
@@ -1652,11 +1653,11 @@
         <v>181</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>31</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" s="4" t="s">
         <v>32</v>
       </c>
       <c r="C15" t="s">
@@ -1666,11 +1667,11 @@
         <v>34</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>35</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" s="4" t="s">
         <v>36</v>
       </c>
       <c r="C16" t="s">
@@ -1680,11 +1681,11 @@
         <v>179</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>38</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" s="4" t="s">
         <v>39</v>
       </c>
       <c r="C17" t="s">
@@ -1694,11 +1695,11 @@
         <v>180</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>40</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" s="4" t="s">
         <v>41</v>
       </c>
       <c r="C18" t="s">
@@ -1708,11 +1709,11 @@
         <v>166</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>43</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19" s="4" t="s">
         <v>44</v>
       </c>
       <c r="C19" t="s">
@@ -1722,11 +1723,11 @@
         <v>166</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>46</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B20" s="4" t="s">
         <v>47</v>
       </c>
       <c r="C20" t="s">
@@ -1736,11 +1737,11 @@
         <v>166</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>49</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B21" s="4" t="s">
         <v>50</v>
       </c>
       <c r="C21" t="s">
@@ -1750,11 +1751,11 @@
         <v>166</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>52</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B22" s="4" t="s">
         <v>53</v>
       </c>
       <c r="C22" t="s">
@@ -1764,11 +1765,11 @@
         <v>178</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>55</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B23" s="4" t="s">
         <v>56</v>
       </c>
       <c r="C23" t="s">
@@ -1778,11 +1779,11 @@
         <v>175</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>58</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B24" s="4" t="s">
         <v>59</v>
       </c>
       <c r="C24" t="s">
@@ -1792,11 +1793,11 @@
         <v>61</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>62</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B25" s="4" t="s">
         <v>63</v>
       </c>
       <c r="C25" t="s">
@@ -1806,11 +1807,11 @@
         <v>166</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>65</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B26" s="4" t="s">
         <v>66</v>
       </c>
       <c r="C26" t="s">
@@ -1820,11 +1821,11 @@
         <v>166</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>67</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B27" s="4" t="s">
         <v>68</v>
       </c>
       <c r="C27" t="s">
@@ -1834,11 +1835,11 @@
         <v>70</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>71</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B28" s="4" t="s">
         <v>72</v>
       </c>
       <c r="C28" t="s">
@@ -1848,11 +1849,11 @@
         <v>166</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>74</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B29" s="4" t="s">
         <v>75</v>
       </c>
       <c r="C29" t="s">
@@ -1862,11 +1863,11 @@
         <v>77</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>78</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B30" s="4" t="s">
         <v>79</v>
       </c>
       <c r="C30" t="s">
@@ -1876,11 +1877,11 @@
         <v>166</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>81</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B31" s="4" t="s">
         <v>82</v>
       </c>
       <c r="C31" t="s">
@@ -1890,11 +1891,11 @@
         <v>166</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>84</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B32" s="4" t="s">
         <v>85</v>
       </c>
       <c r="C32" t="s">
@@ -1904,11 +1905,11 @@
         <v>87</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>88</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B33" s="4" t="s">
         <v>89</v>
       </c>
       <c r="C33" t="s">
@@ -1918,11 +1919,11 @@
         <v>166</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>91</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B34" s="4" t="s">
         <v>92</v>
       </c>
       <c r="C34" t="s">
@@ -1932,11 +1933,11 @@
         <v>177</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>94</v>
       </c>
-      <c r="B35" t="s">
+      <c r="B35" s="4" t="s">
         <v>95</v>
       </c>
       <c r="C35" t="s">
@@ -1946,11 +1947,11 @@
         <v>168</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>97</v>
       </c>
-      <c r="B36" t="s">
+      <c r="B36" s="4" t="s">
         <v>98</v>
       </c>
       <c r="C36" t="s">
@@ -1960,11 +1961,11 @@
         <v>176</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>99</v>
       </c>
-      <c r="B37" t="s">
+      <c r="B37" s="4" t="s">
         <v>100</v>
       </c>
       <c r="C37" t="s">
@@ -1974,11 +1975,11 @@
         <v>174</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>101</v>
       </c>
-      <c r="B38" t="s">
+      <c r="B38" s="4" t="s">
         <v>102</v>
       </c>
       <c r="C38" t="s">
@@ -1988,11 +1989,11 @@
         <v>173</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>103</v>
       </c>
-      <c r="B39" t="s">
+      <c r="B39" s="4" t="s">
         <v>104</v>
       </c>
       <c r="C39" t="s">
@@ -2002,11 +2003,11 @@
         <v>172</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>105</v>
       </c>
-      <c r="B40" t="s">
+      <c r="B40" s="4" t="s">
         <v>106</v>
       </c>
       <c r="C40" t="s">
@@ -2016,11 +2017,11 @@
         <v>171</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>107</v>
       </c>
-      <c r="B41" t="s">
+      <c r="B41" s="4" t="s">
         <v>108</v>
       </c>
       <c r="C41" t="s">
@@ -2030,11 +2031,11 @@
         <v>170</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>109</v>
       </c>
-      <c r="B42" t="s">
+      <c r="B42" s="4" t="s">
         <v>110</v>
       </c>
       <c r="C42" t="s">
@@ -2044,11 +2045,11 @@
         <v>169</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>111</v>
       </c>
-      <c r="B43" t="s">
+      <c r="B43" s="4" t="s">
         <v>112</v>
       </c>
       <c r="C43" t="s">
@@ -2058,11 +2059,11 @@
         <v>168</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>113</v>
       </c>
-      <c r="B44" t="s">
+      <c r="B44" s="4" t="s">
         <v>114</v>
       </c>
       <c r="C44" t="s">
@@ -2072,11 +2073,11 @@
         <v>167</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>116</v>
       </c>
-      <c r="B45" t="s">
+      <c r="B45" s="4" t="s">
         <v>117</v>
       </c>
       <c r="C45" t="s">
@@ -2086,11 +2087,11 @@
         <v>166</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>119</v>
       </c>
-      <c r="B46" t="s">
+      <c r="B46" s="4" t="s">
         <v>120</v>
       </c>
       <c r="C46" t="s">
@@ -2100,11 +2101,11 @@
         <v>166</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>121</v>
       </c>
-      <c r="B47" t="s">
+      <c r="B47" s="4" t="s">
         <v>122</v>
       </c>
       <c r="C47" t="s">
@@ -2114,11 +2115,11 @@
         <v>166</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>123</v>
       </c>
-      <c r="B48" t="s">
+      <c r="B48" s="4" t="s">
         <v>124</v>
       </c>
       <c r="C48" t="s">
@@ -2128,11 +2129,11 @@
         <v>166</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>125</v>
       </c>
-      <c r="B49" t="s">
+      <c r="B49" s="4" t="s">
         <v>126</v>
       </c>
       <c r="C49" t="s">
@@ -2142,11 +2143,11 @@
         <v>166</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>127</v>
       </c>
-      <c r="B50" t="s">
+      <c r="B50" s="4" t="s">
         <v>128</v>
       </c>
       <c r="C50" t="s">
@@ -2156,11 +2157,11 @@
         <v>130</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>131</v>
       </c>
-      <c r="B51" t="s">
+      <c r="B51" s="4" t="s">
         <v>132</v>
       </c>
       <c r="C51" t="s">
@@ -2170,11 +2171,11 @@
         <v>175</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>134</v>
       </c>
-      <c r="B52" t="s">
+      <c r="B52" s="4" t="s">
         <v>135</v>
       </c>
       <c r="C52" t="s">
@@ -2184,11 +2185,11 @@
         <v>137</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>138</v>
       </c>
-      <c r="B53" t="s">
+      <c r="B53" s="4" t="s">
         <v>139</v>
       </c>
       <c r="C53" t="s">
@@ -2198,11 +2199,11 @@
         <v>165</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>141</v>
       </c>
-      <c r="B54" t="s">
+      <c r="B54" s="4" t="s">
         <v>142</v>
       </c>
       <c r="C54" t="s">
@@ -2212,11 +2213,11 @@
         <v>164</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>144</v>
       </c>
-      <c r="B55" t="s">
+      <c r="B55" s="4" t="s">
         <v>145</v>
       </c>
       <c r="C55" t="s">
@@ -2226,11 +2227,11 @@
         <v>162</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>147</v>
       </c>
-      <c r="B56" t="s">
+      <c r="B56" s="4" t="s">
         <v>148</v>
       </c>
       <c r="C56" t="s">
@@ -2240,11 +2241,11 @@
         <v>163</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>150</v>
       </c>
-      <c r="B57" t="s">
+      <c r="B57" s="4" t="s">
         <v>151</v>
       </c>
       <c r="C57" t="s">
@@ -2254,11 +2255,11 @@
         <v>152</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>153</v>
       </c>
-      <c r="B58" t="s">
+      <c r="B58" s="4" t="s">
         <v>154</v>
       </c>
       <c r="C58" t="s">
